--- a/BASE UPCOM.xlsx
+++ b/BASE UPCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario.llanos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vicentegonzalez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96AF1C-C9BE-4D79-9C83-51AE3C391104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C57E7-6EDD-2948-BBF2-A2DE8525E4F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{538DDD0B-B75E-43B3-8ACD-1712A665A621}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="17500" xr2:uid="{538DDD0B-B75E-43B3-8ACD-1712A665A621}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$177</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1132,13 +1134,13 @@
     <t>RUT</t>
   </si>
   <si>
-    <t>PAÍS</t>
-  </si>
-  <si>
     <t>NOMBRE</t>
   </si>
   <si>
     <t>HAITÍ</t>
+  </si>
+  <si>
+    <t>PAIS</t>
   </si>
 </sst>
 </file>
@@ -3809,7 +3811,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4107,20 +4109,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1505B4-EFAC-4E7E-9760-1A5786CE7D4E}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4128,10 +4130,10 @@
         <v>364</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
@@ -5327,7 +5329,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>152</v>
